--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A10E088-042D-4099-8E04-409D6F74F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F25A78-AA17-49FC-958E-3897073EFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>DO-35</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Murata Manufacturing Япония</t>
+  </si>
+  <si>
+    <t>ОАО "Завод Магнетон",г.Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>ПАО "Мстатор",г.Боровичи, Новгородская обл.</t>
+  </si>
+  <si>
+    <t>дР3.362.029-01ТУ/02</t>
+  </si>
+  <si>
+    <t>АО «ОРБИТА»</t>
   </si>
 </sst>
 </file>
@@ -225,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -235,9 +259,10 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +560,11 @@
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -565,8 +592,14 @@
       <c r="I1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +623,14 @@
         <f>A2</f>
         <v>BLM41PG600SN1L</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -615,8 +654,14 @@
         <f t="shared" ref="I3:I7" si="1">A3</f>
         <v>BLM21BD121SN1D</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -640,11 +685,17 @@
         <v>ДМГ1-6,8-4,30 ЕСКФ.670130.001ТУ</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>ДМГ1-6,8-4,30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>F4</f>
+        <v>6,8 мкГн</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,11 +722,17 @@
         <v>МДГ2-680 КВШУ.670114.001ТУ</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>МДГ2-680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>F5</f>
+        <v>680 нГн</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -702,11 +759,17 @@
         <v>МД43Ф-47 КВШУ.671344.017ТУ</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>МД43Ф-47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>F6</f>
+        <v>47 мкГн</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -722,17 +785,27 @@
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">КД522Б </v>
+        <v>КД522Б дР3.362.029-01ТУ/02</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>КД522Б</v>
       </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F25A78-AA17-49FC-958E-3897073EFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21B14E-59B9-4665-A7CC-842CBDA34F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>АО «ОРБИТА»</t>
+  </si>
+  <si>
+    <t>2Т3117А</t>
+  </si>
+  <si>
+    <t>TO18_3</t>
+  </si>
+  <si>
+    <t>аАО.339.256 ТУ</t>
+  </si>
+  <si>
+    <t>ОАО «ИНТЕГРАЛ», г. Минск</t>
   </si>
 </sst>
 </file>
@@ -249,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -263,6 +275,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H7" si="0">A3&amp;" "&amp;G3</f>
+        <f t="shared" ref="H3:H8" si="0">A3&amp;" "&amp;G3</f>
         <v xml:space="preserve">BLM21BD121SN1D </v>
       </c>
       <c r="I3" t="str">
@@ -801,6 +816,39 @@
       </c>
       <c r="K7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>2Т3117А аАО.339.256 ТУ</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21B14E-59B9-4665-A7CC-842CBDA34F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFE4DC-EEA7-4655-B0EF-F3CE8FCEAC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -165,13 +165,22 @@
     <t>2Т3117А</t>
   </si>
   <si>
-    <t>TO18_3</t>
-  </si>
-  <si>
     <t>аАО.339.256 ТУ</t>
   </si>
   <si>
     <t>ОАО «ИНТЕГРАЛ», г. Минск</t>
+  </si>
+  <si>
+    <t>КТ1-7</t>
+  </si>
+  <si>
+    <t>1N5818</t>
+  </si>
+  <si>
+    <t>DiodeS</t>
+  </si>
+  <si>
+    <t>DO-41</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -835,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -845,10 +854,27 @@
         <v>41</v>
       </c>
       <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFE4DC-EEA7-4655-B0EF-F3CE8FCEAC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B86C1-D9D9-49A2-9D6A-13D21EE41215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>DO-41</t>
+  </si>
+  <si>
+    <t>AD8317</t>
+  </si>
+  <si>
+    <t>LFCSP-8</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD8317ACPZ</t>
   </si>
 </sst>
 </file>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H8" si="0">A3&amp;" "&amp;G3</f>
+        <f t="shared" ref="H3:H10" si="0">A3&amp;" "&amp;G3</f>
         <v xml:space="preserve">BLM21BD121SN1D </v>
       </c>
       <c r="I3" t="str">
@@ -875,6 +887,46 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1N5818 </v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="str">
+        <f>A10&amp;" "&amp;G10</f>
+        <v xml:space="preserve">AD8317ACPZ </v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B86C1-D9D9-49A2-9D6A-13D21EE41215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479D62C-8D50-42BD-94C1-71DD117785C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>AD8317ACPZ</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +600,11 @@
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -634,8 +638,11 @@
       <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -683,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="0">A3&amp;" "&amp;G3</f>
+        <f t="shared" ref="H3:H9" si="0">A3&amp;" "&amp;G3</f>
         <v xml:space="preserve">BLM21BD121SN1D </v>
       </c>
       <c r="I3" t="str">
@@ -697,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -731,7 +738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -768,7 +775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -805,7 +812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -839,7 +846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -872,7 +879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -899,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479D62C-8D50-42BD-94C1-71DD117785C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC103BB-6637-4D56-B78A-0BB819174056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>LQW18AN5N6D00D</t>
+  </si>
+  <si>
+    <t>КИВ18-5,6</t>
+  </si>
+  <si>
+    <t>КИВ18</t>
+  </si>
+  <si>
+    <t>5,6 нГн</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -300,6 +312,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +949,71 @@
       </c>
       <c r="K10" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f>A12&amp;" "&amp;G12</f>
+        <v>КИВ18-5,6 КВШУ.670114.001ТУ</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -5,37 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC103BB-6637-4D56-B78A-0BB819174056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A3621-9DDD-43E2-B468-13EB9BCAB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -208,13 +199,28 @@
   </si>
   <si>
     <t>5,6 нГн</t>
+  </si>
+  <si>
+    <t>NFM18PS105D0J3D</t>
+  </si>
+  <si>
+    <t>Фильтр</t>
+  </si>
+  <si>
+    <t>NFM18CC/18PC</t>
+  </si>
+  <si>
+    <t>BLM31KN471SN1</t>
+  </si>
+  <si>
+    <t>R1206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +237,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -297,24 +318,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +638,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="44.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
@@ -1014,6 +1039,66 @@
       </c>
       <c r="K12" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:I14" si="2">A13&amp;" "&amp;G13</f>
+        <v xml:space="preserve">NFM18PS105D0J3D </v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">BLM31KN471SN1 </v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A3621-9DDD-43E2-B468-13EB9BCAB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE23D4-3144-4199-A4AA-116420BB9770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t>R1206</t>
+  </si>
+  <si>
+    <t>Коммент</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -332,14 +344,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +653,7 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -681,8 +690,11 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -744,7 +756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -778,7 +790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -815,7 +827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -852,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -886,8 +898,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
@@ -919,8 +931,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
@@ -939,15 +951,15 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">1N5818 </v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
@@ -966,7 +978,7 @@
         <f>A10&amp;" "&amp;G10</f>
         <v xml:space="preserve">AD8317ACPZ </v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
@@ -976,7 +988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1005,8 +1017,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
@@ -1041,8 +1053,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B13" t="s">
@@ -1058,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:I14" si="2">A13&amp;" "&amp;G13</f>
+        <f t="shared" ref="H13:H14" si="2">A13&amp;" "&amp;G13</f>
         <v xml:space="preserve">NFM18PS105D0J3D </v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
@@ -1071,8 +1083,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
@@ -1091,7 +1103,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">BLM31KN471SN1 </v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J14" t="s">

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE23D4-3144-4199-A4AA-116420BB9770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211389C6-5D10-4BEA-8874-CB717F6C47F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -226,13 +226,34 @@
   </si>
   <si>
     <t>Коммент</t>
+  </si>
+  <si>
+    <t>LQH43NZ470K03L</t>
+  </si>
+  <si>
+    <t>LQH43NZ_03</t>
+  </si>
+  <si>
+    <t>2Д522Б</t>
+  </si>
+  <si>
+    <t>2ДШ2123Г95</t>
+  </si>
+  <si>
+    <t>КТ-99-1</t>
+  </si>
+  <si>
+    <t>АЕЯР.432140.247ТУ</t>
+  </si>
+  <si>
+    <t>АО «ВЗПП-С»</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +290,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -631,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H14" si="2">A13&amp;" "&amp;G13</f>
+        <f t="shared" ref="H13:H17" si="2">A13&amp;" "&amp;G13</f>
         <v xml:space="preserve">NFM18PS105D0J3D </v>
       </c>
       <c r="I13" s="8" t="s">
@@ -1113,7 +1140,108 @@
         <v>36</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">LQH43NZ470K03L </v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>2Д522Б дР3.362.029-01ТУ/02</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16" si="3">A16</f>
+        <v>2Д522Б</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>2ДШ2123Г95 АЕЯР.432140.247ТУ</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211389C6-5D10-4BEA-8874-CB717F6C47F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BACC2D-481D-4C99-A2BB-30D916EEE161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>АО «ВЗПП-С»</t>
+  </si>
+  <si>
+    <t>STMicroelectronic</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +986,9 @@
       </c>
       <c r="J9" t="s">
         <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BACC2D-481D-4C99-A2BB-30D916EEE161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FFEB1-2A7D-4BC9-A808-D37F31FDF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>BLM41PG600SN1L</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>STMicroelectronic</t>
+  </si>
+  <si>
+    <t>1 мк</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1110,7 @@
         <v xml:space="preserve">NFM18PS105D0J3D </v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>

--- a/OtherGOST.xlsx
+++ b/OtherGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FFEB1-2A7D-4BC9-A808-D37F31FDF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4D566-0F7C-4119-851D-D2C725E8AA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -259,12 +259,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,24 +371,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -667,7 +678,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1131,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
@@ -1250,7 +1261,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
